--- a/public/upload/export_excel/รายงานใบแจ้งหนี้-เดือน-01-06-2025-30-06-2025.xlsx
+++ b/public/upload/export_excel/รายงานใบแจ้งหนี้-เดือน-01-06-2025-30-06-2025.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="135">
   <si>
     <t>ข้อมูลยานพาหนะ สาขาเจริญใจ</t>
   </si>
@@ -50,385 +50,376 @@
     <t>สถานะ</t>
   </si>
   <si>
-    <t>18/06/2025</t>
-  </si>
-  <si>
-    <t>INV202505000162</t>
+    <t>20/06/2025</t>
+  </si>
+  <si>
+    <t>INV202505000052</t>
   </si>
   <si>
     <t>ค่าเงินประกันห้อง</t>
   </si>
   <si>
+    <t>A305</t>
+  </si>
+  <si>
+    <t xml:space="preserve">บริษัท ทดสอบ โดย คุณเวกรูปหล่อ </t>
+  </si>
+  <si>
+    <t>5,000</t>
+  </si>
+  <si>
+    <t>ไม่สมบูรณ์</t>
+  </si>
+  <si>
+    <t>23/06/2025</t>
+  </si>
+  <si>
+    <t>INV202505000051</t>
+  </si>
+  <si>
+    <t>ค่าเช่ารายเดือน</t>
+  </si>
+  <si>
+    <t>3,465</t>
+  </si>
+  <si>
+    <t>ชำระเงิน(โดยพนักงาน)</t>
+  </si>
+  <si>
+    <t>21/06/2025</t>
+  </si>
+  <si>
+    <t>INV202505000050</t>
+  </si>
+  <si>
+    <t>A304</t>
+  </si>
+  <si>
+    <t>ชำระเงิน</t>
+  </si>
+  <si>
+    <t>INV202505000049</t>
+  </si>
+  <si>
+    <t>INV202505000048</t>
+  </si>
+  <si>
+    <t>ค่าจองห้อง</t>
+  </si>
+  <si>
+    <t>A306</t>
+  </si>
+  <si>
+    <t>2,000</t>
+  </si>
+  <si>
+    <t>INV202505000047</t>
+  </si>
+  <si>
+    <t>INV202505000046</t>
+  </si>
+  <si>
+    <t>INV202505000045</t>
+  </si>
+  <si>
+    <t>B106</t>
+  </si>
+  <si>
+    <t>บริษัท วรเวก ชึรัมย์</t>
+  </si>
+  <si>
+    <t>INV202505000044</t>
+  </si>
+  <si>
+    <t>A107</t>
+  </si>
+  <si>
+    <t>4,000</t>
+  </si>
+  <si>
+    <t>INV202505000043</t>
+  </si>
+  <si>
+    <t>4,465</t>
+  </si>
+  <si>
+    <t>INV202505000042</t>
+  </si>
+  <si>
+    <t>A106</t>
+  </si>
+  <si>
+    <t>INV202505000041</t>
+  </si>
+  <si>
+    <t>INV202505000040</t>
+  </si>
+  <si>
+    <t>A105</t>
+  </si>
+  <si>
+    <t>INV202505000039</t>
+  </si>
+  <si>
+    <t>INV202505000038</t>
+  </si>
+  <si>
+    <t>A104</t>
+  </si>
+  <si>
+    <t>INV202505000037</t>
+  </si>
+  <si>
+    <t>INV202505000036</t>
+  </si>
+  <si>
+    <t>A103</t>
+  </si>
+  <si>
+    <t>INV202505000035</t>
+  </si>
+  <si>
+    <t>3,965</t>
+  </si>
+  <si>
+    <t>INV202505000034</t>
+  </si>
+  <si>
+    <t>A102</t>
+  </si>
+  <si>
+    <t>INV202505000033</t>
+  </si>
+  <si>
+    <t>INV202505000032</t>
+  </si>
+  <si>
+    <t>B101</t>
+  </si>
+  <si>
+    <t>INV202505000031</t>
+  </si>
+  <si>
+    <t>19/06/2025</t>
+  </si>
+  <si>
+    <t>INV202505000030</t>
+  </si>
+  <si>
+    <t>B105</t>
+  </si>
+  <si>
+    <t>INV202505000029</t>
+  </si>
+  <si>
+    <t>B103</t>
+  </si>
+  <si>
+    <t>13/06/2025</t>
+  </si>
+  <si>
+    <t>INV202505000028</t>
+  </si>
+  <si>
+    <t>17/06/2025</t>
+  </si>
+  <si>
+    <t>INV202505000027</t>
+  </si>
+  <si>
+    <t>3,545</t>
+  </si>
+  <si>
+    <t>INV202505000026</t>
+  </si>
+  <si>
+    <t>A207</t>
+  </si>
+  <si>
+    <t>INV202505000025</t>
+  </si>
+  <si>
+    <t>INV202505000024</t>
+  </si>
+  <si>
+    <t>A206</t>
+  </si>
+  <si>
+    <t>INV202505000023</t>
+  </si>
+  <si>
+    <t>INV202505000022</t>
+  </si>
+  <si>
+    <t>A205</t>
+  </si>
+  <si>
+    <t>ค้างชำระ</t>
+  </si>
+  <si>
+    <t>16/06/2025</t>
+  </si>
+  <si>
+    <t>INV202505000021</t>
+  </si>
+  <si>
+    <t>4,065</t>
+  </si>
+  <si>
+    <t>INV202505000020</t>
+  </si>
+  <si>
+    <t>A204</t>
+  </si>
+  <si>
+    <t>INV202505000019</t>
+  </si>
+  <si>
+    <t>INV202505000018</t>
+  </si>
+  <si>
+    <t>A203</t>
+  </si>
+  <si>
+    <t>INV202505000017</t>
+  </si>
+  <si>
+    <t>INV202505000016</t>
+  </si>
+  <si>
+    <t>A202</t>
+  </si>
+  <si>
+    <t>6,000</t>
+  </si>
+  <si>
+    <t>INV202505000015</t>
+  </si>
+  <si>
+    <t>3,865</t>
+  </si>
+  <si>
+    <t>รอคอนเฟิร์มบิล</t>
+  </si>
+  <si>
+    <t>INV202505000014</t>
+  </si>
+  <si>
+    <t>A201</t>
+  </si>
+  <si>
+    <t>3,000</t>
+  </si>
+  <si>
+    <t>INV202505000013</t>
+  </si>
+  <si>
+    <t>INV202505000012</t>
+  </si>
+  <si>
+    <t>INV202505000011</t>
+  </si>
+  <si>
+    <t>INV202505000010</t>
+  </si>
+  <si>
     <t>A101</t>
   </si>
   <si>
-    <t>บริษัท วรเวก ชึรัมย์</t>
-  </si>
-  <si>
-    <t>ชำระเงิน</t>
-  </si>
-  <si>
-    <t>INV202505000161</t>
-  </si>
-  <si>
-    <t>ค่าเช่ารายเดือน</t>
-  </si>
-  <si>
-    <t>5,745</t>
-  </si>
-  <si>
-    <t>ไม่สมบูรณ์</t>
-  </si>
-  <si>
-    <t>13/06/2025</t>
-  </si>
-  <si>
-    <t>INV202505000160</t>
-  </si>
-  <si>
-    <t>A205</t>
-  </si>
-  <si>
-    <t>นาย ส้ม เทส</t>
-  </si>
-  <si>
-    <t>16/06/2025</t>
-  </si>
-  <si>
-    <t>INV202505000159</t>
-  </si>
-  <si>
-    <t>3,545</t>
-  </si>
-  <si>
-    <t>ชำระเงิน(โดยพนักงาน)</t>
-  </si>
-  <si>
-    <t>INV202505000158</t>
-  </si>
-  <si>
-    <t>A106</t>
-  </si>
-  <si>
-    <t>5,000</t>
-  </si>
-  <si>
-    <t>INV202505000157</t>
-  </si>
-  <si>
-    <t>4,465</t>
+    <t>บริษัท วรเวก111 ชึรัมย์</t>
+  </si>
+  <si>
+    <t>INV202505000009</t>
+  </si>
+  <si>
+    <t>INV202505000008</t>
+  </si>
+  <si>
+    <t>INV202505000007</t>
   </si>
   <si>
     <t>12/06/2025</t>
   </si>
   <si>
-    <t>INV202505000156</t>
-  </si>
-  <si>
-    <t>A202</t>
-  </si>
-  <si>
-    <t>นาง ส้ม เทส</t>
-  </si>
-  <si>
-    <t>ค้างชำระ</t>
-  </si>
-  <si>
-    <t>INV202505000155</t>
-  </si>
-  <si>
-    <t>4,265</t>
-  </si>
-  <si>
-    <t>INV202505000154</t>
-  </si>
-  <si>
-    <t>A302</t>
-  </si>
-  <si>
-    <t>นาย กอล์ฟ ส้มเทส</t>
-  </si>
-  <si>
-    <t>INV202505000153</t>
-  </si>
-  <si>
-    <t>3,465</t>
-  </si>
-  <si>
-    <t>รอคอนเฟิร์มบิล</t>
-  </si>
-  <si>
-    <t>INV202505000152</t>
-  </si>
-  <si>
-    <t>A303</t>
-  </si>
-  <si>
-    <t>INV202505000151</t>
-  </si>
-  <si>
-    <t>INV202505000150</t>
-  </si>
-  <si>
-    <t>INV202505000149</t>
-  </si>
-  <si>
-    <t>INV202505000148</t>
-  </si>
-  <si>
-    <t>INV202505000147</t>
-  </si>
-  <si>
-    <t>INV202505000146</t>
-  </si>
-  <si>
-    <t>INV202505000145</t>
-  </si>
-  <si>
-    <t>INV202505000144</t>
-  </si>
-  <si>
-    <t>INV202505000143</t>
-  </si>
-  <si>
-    <t>INV202505000142</t>
-  </si>
-  <si>
-    <t>ค่าจองห้อง</t>
-  </si>
-  <si>
-    <t>2,000</t>
-  </si>
-  <si>
-    <t>INV202505000141</t>
-  </si>
-  <si>
-    <t>INV202505000140</t>
+    <t>INV202505000006</t>
+  </si>
+  <si>
+    <t>B102</t>
+  </si>
+  <si>
+    <t>INV202505000005</t>
+  </si>
+  <si>
+    <t>B104</t>
+  </si>
+  <si>
+    <t>10/06/2025</t>
+  </si>
+  <si>
+    <t>INV202505000003</t>
+  </si>
+  <si>
+    <t>03/06/2025</t>
+  </si>
+  <si>
+    <t>INV202505000002</t>
+  </si>
+  <si>
+    <t>INV202505000001</t>
+  </si>
+  <si>
+    <t>INV202504000031</t>
   </si>
   <si>
     <t>A215</t>
   </si>
   <si>
-    <t>24,000</t>
-  </si>
-  <si>
-    <t>INV202505000139</t>
-  </si>
-  <si>
-    <t>A214</t>
-  </si>
-  <si>
-    <t>INV202505000138</t>
-  </si>
-  <si>
-    <t>A213</t>
-  </si>
-  <si>
-    <t>INV202505000137</t>
-  </si>
-  <si>
-    <t>A211</t>
-  </si>
-  <si>
-    <t>INV202505000136</t>
-  </si>
-  <si>
-    <t>A210</t>
-  </si>
-  <si>
-    <t>INV202505000135</t>
-  </si>
-  <si>
-    <t>A209</t>
-  </si>
-  <si>
-    <t>INV202505000134</t>
-  </si>
-  <si>
-    <t>A208</t>
-  </si>
-  <si>
-    <t>INV202505000133</t>
-  </si>
-  <si>
-    <t>A207</t>
-  </si>
-  <si>
-    <t>INV202505000132</t>
-  </si>
-  <si>
-    <t>A206</t>
-  </si>
-  <si>
-    <t>INV202505000131</t>
-  </si>
-  <si>
-    <t>A204</t>
-  </si>
-  <si>
-    <t>INV202505000130</t>
-  </si>
-  <si>
-    <t>A203</t>
-  </si>
-  <si>
-    <t>INV202505000129</t>
-  </si>
-  <si>
-    <t>11/06/2025</t>
-  </si>
-  <si>
-    <t>INV202505000128</t>
-  </si>
-  <si>
-    <t>A201</t>
-  </si>
-  <si>
-    <t>INV202505000127</t>
-  </si>
-  <si>
-    <t>A107</t>
-  </si>
-  <si>
-    <t>INV202505000086</t>
-  </si>
-  <si>
-    <t>A104</t>
-  </si>
-  <si>
-    <t>บริษัท ลอง นะจ๊ะ</t>
-  </si>
-  <si>
-    <t>INV202505000085</t>
-  </si>
-  <si>
-    <t>INV202505000040</t>
-  </si>
-  <si>
-    <t>INV202505000039</t>
-  </si>
-  <si>
-    <t>INV202505000034</t>
-  </si>
-  <si>
-    <t>A108</t>
-  </si>
-  <si>
-    <t>INV202505000033</t>
-  </si>
-  <si>
-    <t>INV202505000032</t>
-  </si>
-  <si>
-    <t>INV202505000031</t>
-  </si>
-  <si>
-    <t>INV202505000030</t>
-  </si>
-  <si>
-    <t>INV202505000029</t>
-  </si>
-  <si>
-    <t>INV202505000028</t>
-  </si>
-  <si>
-    <t>INV202505000027</t>
-  </si>
-  <si>
-    <t>INV202505000026</t>
-  </si>
-  <si>
-    <t>INV202505000025</t>
-  </si>
-  <si>
-    <t>INV202505000024</t>
-  </si>
-  <si>
-    <t>INV202505000023</t>
-  </si>
-  <si>
-    <t>INV202505000022</t>
-  </si>
-  <si>
-    <t>INV202505000021</t>
-  </si>
-  <si>
-    <t>INV202505000020</t>
-  </si>
-  <si>
-    <t>นางสาว ยา เทส</t>
-  </si>
-  <si>
-    <t>INV202505000019</t>
-  </si>
-  <si>
-    <t>10/06/2025</t>
-  </si>
-  <si>
-    <t>INV202505000018</t>
-  </si>
-  <si>
-    <t>INV202505000017</t>
-  </si>
-  <si>
-    <t>INV202505000016</t>
-  </si>
-  <si>
-    <t>INV202505000015</t>
-  </si>
-  <si>
-    <t>INV202505000014</t>
-  </si>
-  <si>
-    <t>INV202505000013</t>
-  </si>
-  <si>
-    <t>INV202505000012</t>
-  </si>
-  <si>
-    <t>A103</t>
-  </si>
-  <si>
-    <t>INV202505000011</t>
-  </si>
-  <si>
-    <t>5,465</t>
-  </si>
-  <si>
-    <t>INV202505000010</t>
-  </si>
-  <si>
-    <t>A102</t>
-  </si>
-  <si>
-    <t>INV202505000009</t>
-  </si>
-  <si>
-    <t>INV202505000008</t>
-  </si>
-  <si>
-    <t>INV202505000007</t>
-  </si>
-  <si>
-    <t>INV202505000006</t>
-  </si>
-  <si>
-    <t>INV202505000005</t>
-  </si>
-  <si>
-    <t>INV202505000004</t>
-  </si>
-  <si>
-    <t>INV202505000003</t>
-  </si>
-  <si>
-    <t>INV202505000002</t>
-  </si>
-  <si>
-    <t>นางสาว ORANGE TEST</t>
-  </si>
-  <si>
-    <t>INV202505000001</t>
+    <t>INV202504000024</t>
+  </si>
+  <si>
+    <t>INV202504000023</t>
+  </si>
+  <si>
+    <t>INV202504000022</t>
+  </si>
+  <si>
+    <t>INV202504000021</t>
+  </si>
+  <si>
+    <t>INV202504000020</t>
+  </si>
+  <si>
+    <t>INV202504000019</t>
+  </si>
+  <si>
+    <t>INV202504000018</t>
+  </si>
+  <si>
+    <t>05/06/2025</t>
+  </si>
+  <si>
+    <t>INV202504000014</t>
+  </si>
+  <si>
+    <t>INV202504000012</t>
+  </si>
+  <si>
+    <t>3,975</t>
+  </si>
+  <si>
+    <t>INV202504000010</t>
+  </si>
+  <si>
+    <t>INV202504000008</t>
+  </si>
+  <si>
+    <t>4,165</t>
+  </si>
+  <si>
+    <t>INV202504000007</t>
+  </si>
+  <si>
+    <t>INV202504000006</t>
   </si>
 </sst>
 </file>
@@ -771,10 +762,10 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:I78"/>
+  <dimension ref="A1:I69"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A1" sqref="A1:I78"/>
+      <selection activeCell="A1" sqref="A1:I69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -861,26 +852,26 @@
       <c r="E5" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F5" s="1">
-        <v>0</v>
+      <c r="F5" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="G5" s="1"/>
-      <c r="H5" s="1">
-        <v>0</v>
+      <c r="H5" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="1" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>14</v>
@@ -889,79 +880,79 @@
         <v>15</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G6" s="1"/>
       <c r="H6" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F7" s="1">
-        <v>0</v>
+        <v>15</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="G7" s="1"/>
-      <c r="H7" s="1">
-        <v>0</v>
+      <c r="H7" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
     </row>
     <row r="8" spans="1:9">
       <c r="A8" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D8" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>23</v>
-      </c>
       <c r="E8" s="1" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="G8" s="1"/>
       <c r="H8" s="1" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" s="1" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="B9" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>29</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>13</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>30</v>
@@ -977,903 +968,903 @@
         <v>31</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:9">
       <c r="A10" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>32</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>15</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G10" s="1"/>
       <c r="H10" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="11" spans="1:9">
       <c r="A11" s="1" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="F11" s="1">
-        <v>0</v>
+        <v>15</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>31</v>
       </c>
       <c r="G11" s="1"/>
-      <c r="H11" s="1">
-        <v>0</v>
+      <c r="H11" s="1" t="s">
+        <v>31</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
     </row>
     <row r="12" spans="1:9">
       <c r="A12" s="1" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="G12" s="1"/>
       <c r="H12" s="1" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
     </row>
     <row r="13" spans="1:9">
       <c r="A13" s="1" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="F13" s="1">
-        <v>0</v>
+        <v>36</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>39</v>
       </c>
       <c r="G13" s="1"/>
-      <c r="H13" s="1">
-        <v>0</v>
+      <c r="H13" s="1" t="s">
+        <v>39</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="14" spans="1:9">
       <c r="A14" s="1" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="G14" s="1"/>
       <c r="H14" s="1" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>46</v>
+        <v>17</v>
       </c>
     </row>
     <row r="15" spans="1:9">
       <c r="A15" s="1" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="F15" s="1">
-        <v>0</v>
+        <v>36</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>31</v>
       </c>
       <c r="G15" s="1"/>
-      <c r="H15" s="1">
-        <v>0</v>
+      <c r="H15" s="1" t="s">
+        <v>31</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="16" spans="1:9">
       <c r="A16" s="1" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="G16" s="1"/>
       <c r="H16" s="1" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
     </row>
     <row r="17" spans="1:9">
       <c r="A17" s="1" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="F17" s="1">
-        <v>0</v>
+        <v>36</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="G17" s="1"/>
-      <c r="H17" s="1">
-        <v>0</v>
+      <c r="H17" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="18" spans="1:9">
       <c r="A18" s="1" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="G18" s="1"/>
       <c r="H18" s="1" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="19" spans="1:9">
       <c r="A19" s="1" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="F19" s="1">
-        <v>0</v>
+        <v>36</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>31</v>
       </c>
       <c r="G19" s="1"/>
-      <c r="H19" s="1">
-        <v>0</v>
+      <c r="H19" s="1" t="s">
+        <v>31</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="20" spans="1:9">
       <c r="A20" s="1" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="G20" s="1"/>
       <c r="H20" s="1" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="21" spans="1:9">
       <c r="A21" s="1" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="F21" s="1">
-        <v>0</v>
+        <v>36</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>31</v>
       </c>
       <c r="G21" s="1"/>
-      <c r="H21" s="1">
-        <v>0</v>
+      <c r="H21" s="1" t="s">
+        <v>31</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="22" spans="1:9">
       <c r="A22" s="1" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="G22" s="1"/>
       <c r="H22" s="1" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="23" spans="1:9">
       <c r="A23" s="1" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="F23" s="1">
-        <v>0</v>
+        <v>36</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>31</v>
       </c>
       <c r="G23" s="1"/>
-      <c r="H23" s="1">
-        <v>0</v>
+      <c r="H23" s="1" t="s">
+        <v>31</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="24" spans="1:9">
       <c r="A24" s="1" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>57</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="G24" s="1"/>
       <c r="H24" s="1" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="25" spans="1:9">
       <c r="A25" s="1" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>58</v>
       </c>
       <c r="C25" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D25" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="D25" s="1" t="s">
-        <v>42</v>
-      </c>
       <c r="E25" s="1" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>60</v>
+        <v>31</v>
       </c>
       <c r="G25" s="1"/>
       <c r="H25" s="1" t="s">
-        <v>60</v>
+        <v>31</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="26" spans="1:9">
       <c r="A26" s="1" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C26" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D26" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="D26" s="1" t="s">
-        <v>48</v>
-      </c>
       <c r="E26" s="1" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>60</v>
+        <v>21</v>
       </c>
       <c r="G26" s="1"/>
       <c r="H26" s="1" t="s">
-        <v>60</v>
+        <v>21</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>38</v>
+        <v>17</v>
       </c>
     </row>
     <row r="27" spans="1:9">
       <c r="A27" s="1" t="s">
-        <v>34</v>
+        <v>61</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>62</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>59</v>
+        <v>29</v>
       </c>
       <c r="D27" s="1" t="s">
         <v>63</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>64</v>
+        <v>31</v>
       </c>
       <c r="G27" s="1"/>
       <c r="H27" s="1" t="s">
-        <v>64</v>
+        <v>31</v>
       </c>
       <c r="I27" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="28" spans="1:9">
       <c r="A28" s="1" t="s">
-        <v>34</v>
+        <v>61</v>
       </c>
       <c r="B28" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D28" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="C28" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>66</v>
-      </c>
       <c r="E28" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>64</v>
+        <v>31</v>
       </c>
       <c r="G28" s="1"/>
       <c r="H28" s="1" t="s">
-        <v>64</v>
+        <v>31</v>
       </c>
       <c r="I28" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="29" spans="1:9">
       <c r="A29" s="1" t="s">
-        <v>34</v>
+        <v>66</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>67</v>
       </c>
       <c r="C29" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D29" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="D29" s="1" t="s">
-        <v>68</v>
-      </c>
       <c r="E29" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="F29" s="1" t="s">
-        <v>64</v>
+        <v>36</v>
+      </c>
+      <c r="F29" s="1">
+        <v>0</v>
       </c>
       <c r="G29" s="1"/>
-      <c r="H29" s="1" t="s">
-        <v>64</v>
+      <c r="H29" s="1">
+        <v>0</v>
       </c>
       <c r="I29" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="30" spans="1:9">
       <c r="A30" s="1" t="s">
-        <v>34</v>
+        <v>68</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>69</v>
       </c>
       <c r="C30" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D30" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="D30" s="1" t="s">
+      <c r="E30" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F30" s="1" t="s">
         <v>70</v>
-      </c>
-      <c r="E30" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="F30" s="1" t="s">
-        <v>64</v>
       </c>
       <c r="G30" s="1"/>
       <c r="H30" s="1" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="I30" s="1" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
     </row>
     <row r="31" spans="1:9">
       <c r="A31" s="1" t="s">
-        <v>34</v>
+        <v>66</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>71</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>59</v>
+        <v>13</v>
       </c>
       <c r="D31" s="1" t="s">
         <v>72</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>64</v>
+        <v>31</v>
       </c>
       <c r="G31" s="1"/>
       <c r="H31" s="1" t="s">
-        <v>64</v>
+        <v>31</v>
       </c>
       <c r="I31" s="1" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
     </row>
     <row r="32" spans="1:9">
       <c r="A32" s="1" t="s">
-        <v>34</v>
+        <v>68</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>73</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>59</v>
+        <v>20</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="G32" s="1"/>
       <c r="H32" s="1" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="I32" s="1" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
     </row>
     <row r="33" spans="1:9">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>66</v>
       </c>
       <c r="B33" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D33" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="C33" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="D33" s="1" t="s">
-        <v>76</v>
-      </c>
       <c r="E33" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>64</v>
+        <v>16</v>
       </c>
       <c r="G33" s="1"/>
       <c r="H33" s="1" t="s">
-        <v>64</v>
+        <v>16</v>
       </c>
       <c r="I33" s="1" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
     </row>
     <row r="34" spans="1:9">
       <c r="A34" s="1" t="s">
-        <v>34</v>
+        <v>66</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>59</v>
+        <v>20</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>64</v>
+        <v>21</v>
       </c>
       <c r="G34" s="1"/>
       <c r="H34" s="1" t="s">
-        <v>64</v>
+        <v>21</v>
       </c>
       <c r="I34" s="1" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
     </row>
     <row r="35" spans="1:9">
       <c r="A35" s="1" t="s">
-        <v>34</v>
+        <v>66</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>59</v>
+        <v>13</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>64</v>
+        <v>16</v>
       </c>
       <c r="G35" s="1"/>
       <c r="H35" s="1" t="s">
-        <v>64</v>
+        <v>16</v>
       </c>
       <c r="I35" s="1" t="s">
-        <v>20</v>
+        <v>79</v>
       </c>
     </row>
     <row r="36" spans="1:9">
       <c r="A36" s="1" t="s">
-        <v>34</v>
+        <v>80</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>81</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>59</v>
+        <v>20</v>
       </c>
       <c r="D36" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F36" s="1" t="s">
         <v>82</v>
-      </c>
-      <c r="E36" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="F36" s="1" t="s">
-        <v>64</v>
       </c>
       <c r="G36" s="1"/>
       <c r="H36" s="1" t="s">
-        <v>64</v>
+        <v>82</v>
       </c>
       <c r="I36" s="1" t="s">
-        <v>20</v>
+        <v>79</v>
       </c>
     </row>
     <row r="37" spans="1:9">
       <c r="A37" s="1" t="s">
-        <v>34</v>
+        <v>66</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>83</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>59</v>
+        <v>13</v>
       </c>
       <c r="D37" s="1" t="s">
         <v>84</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>64</v>
+        <v>16</v>
       </c>
       <c r="G37" s="1"/>
       <c r="H37" s="1" t="s">
-        <v>64</v>
+        <v>16</v>
       </c>
       <c r="I37" s="1" t="s">
-        <v>20</v>
+        <v>79</v>
       </c>
     </row>
     <row r="38" spans="1:9">
       <c r="A38" s="1" t="s">
-        <v>34</v>
+        <v>68</v>
       </c>
       <c r="B38" s="1" t="s">
         <v>85</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>59</v>
+        <v>20</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>36</v>
+        <v>84</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>64</v>
+        <v>21</v>
       </c>
       <c r="G38" s="1"/>
       <c r="H38" s="1" t="s">
-        <v>64</v>
+        <v>21</v>
       </c>
       <c r="I38" s="1" t="s">
-        <v>38</v>
+        <v>79</v>
       </c>
     </row>
     <row r="39" spans="1:9">
       <c r="A39" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B39" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="B39" s="1" t="s">
+      <c r="C39" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D39" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="C39" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="D39" s="1" t="s">
-        <v>88</v>
-      </c>
       <c r="E39" s="1" t="s">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>60</v>
+        <v>31</v>
       </c>
       <c r="G39" s="1"/>
       <c r="H39" s="1" t="s">
-        <v>60</v>
+        <v>31</v>
       </c>
       <c r="I39" s="1" t="s">
-        <v>20</v>
+        <v>79</v>
       </c>
     </row>
     <row r="40" spans="1:9">
       <c r="A40" s="1" t="s">
-        <v>25</v>
+        <v>68</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>59</v>
+        <v>20</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>60</v>
+        <v>21</v>
       </c>
       <c r="G40" s="1"/>
       <c r="H40" s="1" t="s">
-        <v>60</v>
+        <v>21</v>
       </c>
       <c r="I40" s="1" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="41" spans="1:9">
       <c r="A41" s="1" t="s">
-        <v>86</v>
+        <v>66</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C41" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="F41" s="1">
-        <v>0</v>
+        <v>36</v>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>91</v>
       </c>
       <c r="G41" s="1"/>
-      <c r="H41" s="1">
-        <v>0</v>
+      <c r="H41" s="1" t="s">
+        <v>91</v>
       </c>
       <c r="I41" s="1" t="s">
-        <v>20</v>
+        <v>79</v>
       </c>
     </row>
     <row r="42" spans="1:9">
       <c r="A42" s="1" t="s">
-        <v>86</v>
+        <v>68</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E42" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F42" s="1" t="s">
         <v>93</v>
-      </c>
-      <c r="F42" s="1" t="s">
-        <v>33</v>
       </c>
       <c r="G42" s="1"/>
       <c r="H42" s="1" t="s">
-        <v>33</v>
+        <v>93</v>
       </c>
       <c r="I42" s="1" t="s">
-        <v>20</v>
+        <v>94</v>
       </c>
     </row>
     <row r="43" spans="1:9">
       <c r="A43" s="1" t="s">
-        <v>86</v>
+        <v>66</v>
       </c>
       <c r="B43" s="1" t="s">
         <v>95</v>
@@ -1882,118 +1873,118 @@
         <v>13</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="F43" s="1">
-        <v>0</v>
+        <v>36</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>97</v>
       </c>
       <c r="G43" s="1"/>
-      <c r="H43" s="1">
-        <v>0</v>
+      <c r="H43" s="1" t="s">
+        <v>97</v>
       </c>
       <c r="I43" s="1" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
     </row>
     <row r="44" spans="1:9">
       <c r="A44" s="1" t="s">
-        <v>86</v>
+        <v>66</v>
       </c>
       <c r="B44" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D44" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="C44" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D44" s="1" t="s">
-        <v>92</v>
-      </c>
       <c r="E44" s="1" t="s">
-        <v>93</v>
+        <v>36</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="G44" s="1"/>
       <c r="H44" s="1" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="I44" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="45" spans="1:9">
       <c r="A45" s="1" t="s">
-        <v>86</v>
+        <v>66</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="C45" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>98</v>
+        <v>38</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F45" s="1">
-        <v>0</v>
+        <v>36</v>
+      </c>
+      <c r="F45" s="1" t="s">
+        <v>39</v>
       </c>
       <c r="G45" s="1"/>
-      <c r="H45" s="1">
-        <v>0</v>
+      <c r="H45" s="1" t="s">
+        <v>39</v>
       </c>
       <c r="I45" s="1" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
     </row>
     <row r="46" spans="1:9">
       <c r="A46" s="1" t="s">
-        <v>86</v>
+        <v>66</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>98</v>
+        <v>38</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="G46" s="1"/>
       <c r="H46" s="1" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="I46" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="47" spans="1:9">
       <c r="A47" s="1" t="s">
-        <v>86</v>
+        <v>66</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C47" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>15</v>
+        <v>103</v>
       </c>
       <c r="F47" s="1">
         <v>0</v>
@@ -2003,51 +1994,51 @@
         <v>0</v>
       </c>
       <c r="I47" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="48" spans="1:9">
       <c r="A48" s="1" t="s">
-        <v>86</v>
+        <v>66</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>15</v>
+        <v>103</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="G48" s="1"/>
       <c r="H48" s="1" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="I48" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="49" spans="1:9">
       <c r="A49" s="1" t="s">
-        <v>86</v>
+        <v>66</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="C49" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>98</v>
+        <v>43</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="F49" s="1">
         <v>0</v>
@@ -2057,790 +2048,547 @@
         <v>0</v>
       </c>
       <c r="I49" s="1" t="s">
-        <v>20</v>
+        <v>79</v>
       </c>
     </row>
     <row r="50" spans="1:9">
       <c r="A50" s="1" t="s">
-        <v>86</v>
+        <v>66</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>98</v>
+        <v>43</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="G50" s="1"/>
       <c r="H50" s="1" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="I50" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="51" spans="1:9">
       <c r="A51" s="1" t="s">
-        <v>86</v>
+        <v>107</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>98</v>
+        <v>109</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F51" s="1">
-        <v>0</v>
+        <v>36</v>
+      </c>
+      <c r="F51" s="1" t="s">
+        <v>31</v>
       </c>
       <c r="G51" s="1"/>
-      <c r="H51" s="1">
-        <v>0</v>
+      <c r="H51" s="1" t="s">
+        <v>31</v>
       </c>
       <c r="I51" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="52" spans="1:9">
       <c r="A52" s="1" t="s">
-        <v>86</v>
+        <v>107</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>98</v>
+        <v>111</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="G52" s="1"/>
       <c r="H52" s="1" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="I52" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="53" spans="1:9">
       <c r="A53" s="1" t="s">
-        <v>86</v>
+        <v>112</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F53" s="1">
-        <v>0</v>
+        <v>103</v>
+      </c>
+      <c r="F53" s="1" t="s">
+        <v>31</v>
       </c>
       <c r="G53" s="1"/>
-      <c r="H53" s="1">
-        <v>0</v>
+      <c r="H53" s="1" t="s">
+        <v>31</v>
       </c>
       <c r="I53" s="1" t="s">
-        <v>20</v>
+        <v>79</v>
       </c>
     </row>
     <row r="54" spans="1:9">
       <c r="A54" s="1" t="s">
-        <v>86</v>
+        <v>114</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>98</v>
+        <v>46</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F54" s="1" t="s">
-        <v>45</v>
+        <v>36</v>
+      </c>
+      <c r="F54" s="1">
+        <v>0</v>
       </c>
       <c r="G54" s="1"/>
-      <c r="H54" s="1" t="s">
-        <v>45</v>
+      <c r="H54" s="1">
+        <v>0</v>
       </c>
       <c r="I54" s="1" t="s">
-        <v>20</v>
+        <v>79</v>
       </c>
     </row>
     <row r="55" spans="1:9">
       <c r="A55" s="1" t="s">
-        <v>86</v>
+        <v>114</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>98</v>
+        <v>46</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F55" s="1">
-        <v>0</v>
+        <v>36</v>
+      </c>
+      <c r="F55" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="G55" s="1"/>
-      <c r="H55" s="1">
-        <v>0</v>
+      <c r="H55" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="I55" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="56" spans="1:9">
       <c r="A56" s="1" t="s">
-        <v>86</v>
+        <v>11</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>98</v>
+        <v>118</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="G56" s="1"/>
       <c r="H56" s="1" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="I56" s="1" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
     </row>
     <row r="57" spans="1:9">
       <c r="A57" s="1" t="s">
-        <v>86</v>
+        <v>66</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>110</v>
+        <v>119</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>98</v>
+        <v>72</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F57" s="1">
-        <v>0</v>
+        <v>36</v>
+      </c>
+      <c r="F57" s="1" t="s">
+        <v>31</v>
       </c>
       <c r="G57" s="1"/>
-      <c r="H57" s="1">
-        <v>0</v>
+      <c r="H57" s="1" t="s">
+        <v>31</v>
       </c>
       <c r="I57" s="1" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
     </row>
     <row r="58" spans="1:9">
       <c r="A58" s="1" t="s">
-        <v>86</v>
+        <v>66</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>111</v>
+        <v>120</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>98</v>
+        <v>75</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="G58" s="1"/>
       <c r="H58" s="1" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="I58" s="1" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
     </row>
     <row r="59" spans="1:9">
       <c r="A59" s="1" t="s">
-        <v>86</v>
+        <v>66</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>112</v>
+        <v>121</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>59</v>
+        <v>29</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>98</v>
+        <v>78</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>113</v>
+        <v>36</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>60</v>
+        <v>31</v>
       </c>
       <c r="G59" s="1"/>
       <c r="H59" s="1" t="s">
-        <v>60</v>
+        <v>31</v>
       </c>
       <c r="I59" s="1" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
     </row>
     <row r="60" spans="1:9">
       <c r="A60" s="1" t="s">
-        <v>21</v>
+        <v>66</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>59</v>
+        <v>29</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>14</v>
+        <v>84</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>60</v>
+        <v>31</v>
       </c>
       <c r="G60" s="1"/>
       <c r="H60" s="1" t="s">
-        <v>60</v>
+        <v>31</v>
       </c>
       <c r="I60" s="1" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="61" spans="1:9">
       <c r="A61" s="1" t="s">
-        <v>115</v>
+        <v>66</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>59</v>
+        <v>29</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>23</v>
+        <v>87</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>60</v>
+        <v>31</v>
       </c>
       <c r="G61" s="1"/>
       <c r="H61" s="1" t="s">
-        <v>60</v>
+        <v>31</v>
       </c>
       <c r="I61" s="1" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
     </row>
     <row r="62" spans="1:9">
       <c r="A62" s="1" t="s">
-        <v>115</v>
+        <v>66</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>59</v>
+        <v>29</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>14</v>
+        <v>90</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>60</v>
+        <v>31</v>
       </c>
       <c r="G62" s="1"/>
       <c r="H62" s="1" t="s">
-        <v>60</v>
+        <v>31</v>
       </c>
       <c r="I62" s="1" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
     </row>
     <row r="63" spans="1:9">
       <c r="A63" s="1" t="s">
-        <v>115</v>
+        <v>66</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>118</v>
+        <v>125</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>14</v>
+        <v>96</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F63" s="1">
-        <v>0</v>
+        <v>36</v>
+      </c>
+      <c r="F63" s="1" t="s">
+        <v>31</v>
       </c>
       <c r="G63" s="1"/>
-      <c r="H63" s="1">
-        <v>0</v>
+      <c r="H63" s="1" t="s">
+        <v>31</v>
       </c>
       <c r="I63" s="1" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
     </row>
     <row r="64" spans="1:9">
       <c r="A64" s="1" t="s">
-        <v>115</v>
+        <v>126</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>14</v>
+        <v>49</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G64" s="1"/>
       <c r="H64" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="I64" s="1" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
     </row>
     <row r="65" spans="1:9">
       <c r="A65" s="1" t="s">
-        <v>115</v>
+        <v>126</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>120</v>
+        <v>128</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>98</v>
+        <v>52</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F65" s="1">
-        <v>0</v>
+        <v>36</v>
+      </c>
+      <c r="F65" s="1" t="s">
+        <v>129</v>
       </c>
       <c r="G65" s="1"/>
-      <c r="H65" s="1">
-        <v>0</v>
+      <c r="H65" s="1" t="s">
+        <v>129</v>
       </c>
       <c r="I65" s="1" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
     </row>
     <row r="66" spans="1:9">
       <c r="A66" s="1" t="s">
-        <v>115</v>
+        <v>126</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>121</v>
+        <v>130</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>98</v>
+        <v>56</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="G66" s="1"/>
       <c r="H66" s="1" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="I66" s="1" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
     </row>
     <row r="67" spans="1:9">
       <c r="A67" s="1" t="s">
-        <v>115</v>
+        <v>126</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>122</v>
+        <v>131</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>123</v>
+        <v>59</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F67" s="1">
-        <v>0</v>
+        <v>36</v>
+      </c>
+      <c r="F67" s="1" t="s">
+        <v>132</v>
       </c>
       <c r="G67" s="1"/>
-      <c r="H67" s="1">
-        <v>0</v>
+      <c r="H67" s="1" t="s">
+        <v>132</v>
       </c>
       <c r="I67" s="1" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
     </row>
     <row r="68" spans="1:9">
       <c r="A68" s="1" t="s">
-        <v>115</v>
+        <v>66</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>124</v>
+        <v>133</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>123</v>
+        <v>38</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>125</v>
+        <v>31</v>
       </c>
       <c r="G68" s="1"/>
       <c r="H68" s="1" t="s">
-        <v>125</v>
+        <v>31</v>
       </c>
       <c r="I68" s="1" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
     </row>
     <row r="69" spans="1:9">
       <c r="A69" s="1" t="s">
-        <v>115</v>
+        <v>66</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>126</v>
+        <v>134</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>127</v>
+        <v>43</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F69" s="1">
-        <v>0</v>
+        <v>36</v>
+      </c>
+      <c r="F69" s="1" t="s">
+        <v>31</v>
       </c>
       <c r="G69" s="1"/>
-      <c r="H69" s="1">
-        <v>0</v>
+      <c r="H69" s="1" t="s">
+        <v>31</v>
       </c>
       <c r="I69" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9">
-      <c r="A70" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="B70" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="C70" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D70" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="E70" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F70" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="G70" s="1"/>
-      <c r="H70" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="I70" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="71" spans="1:9">
-      <c r="A71" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="B71" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="C71" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D71" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="E71" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F71" s="1">
-        <v>0</v>
-      </c>
-      <c r="G71" s="1"/>
-      <c r="H71" s="1">
-        <v>0</v>
-      </c>
-      <c r="I71" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="72" spans="1:9">
-      <c r="A72" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="B72" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="C72" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D72" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="E72" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F72" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="G72" s="1"/>
-      <c r="H72" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="I72" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="73" spans="1:9">
-      <c r="A73" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="B73" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="C73" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D73" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="E73" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F73" s="1">
-        <v>0</v>
-      </c>
-      <c r="G73" s="1"/>
-      <c r="H73" s="1">
-        <v>0</v>
-      </c>
-      <c r="I73" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9">
-      <c r="A74" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="B74" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="C74" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D74" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="E74" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F74" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="G74" s="1"/>
-      <c r="H74" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="I74" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="75" spans="1:9">
-      <c r="A75" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="B75" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="C75" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D75" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="E75" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F75" s="1">
-        <v>0</v>
-      </c>
-      <c r="G75" s="1"/>
-      <c r="H75" s="1">
-        <v>0</v>
-      </c>
-      <c r="I75" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="76" spans="1:9">
-      <c r="A76" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="B76" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="C76" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D76" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="E76" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F76" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="G76" s="1"/>
-      <c r="H76" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="I76" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="77" spans="1:9">
-      <c r="A77" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="B77" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="C77" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="D77" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E77" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="F77" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="G77" s="1"/>
-      <c r="H77" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="I77" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="78" spans="1:9">
-      <c r="A78" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B78" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="C78" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="D78" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="E78" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F78" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="G78" s="1"/>
-      <c r="H78" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="I78" s="1" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
